--- a/Planificacion DAW 2018.xlsx
+++ b/Planificacion DAW 2018.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nano\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Boniko\Documents\GitHub\Videoclub-DAW-2018\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6B6FA9C5-8FB5-4CE7-BBBA-EC4D3D414340}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" xr2:uid="{DE96D8A8-187B-4620-BEA8-2C1C3D1CEB27}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
   </bookViews>
   <sheets>
     <sheet name="Maquetas DAW" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -79,7 +78,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -361,18 +360,6 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="6" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="6" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="7" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="5" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -407,6 +394,18 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="12" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="6" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="7" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -728,11 +727,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DC42212-536F-45F0-8D57-0AC88E03481D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5:K5"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -758,24 +757,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="8"/>
+      <c r="D1" s="23"/>
     </row>
     <row r="2" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
+      <c r="A2" s="21"/>
+      <c r="B2" s="21"/>
       <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="5" t="s">
         <v>8</v>
       </c>
     </row>
@@ -792,7 +791,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="10" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="3"/>
@@ -804,7 +803,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="10" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="3"/>
@@ -816,7 +815,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="10" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="4"/>
@@ -824,11 +823,11 @@
         <v>1</v>
       </c>
       <c r="D6" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="10" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="4"/>
@@ -840,13 +839,13 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C8" s="10">
+      <c r="C8" s="6">
         <f>SUM(C3,C4,C5,C6,C7)</f>
         <v>5</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="6">
         <f>SUM(D3,D4,D5,D6,D7)</f>
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -861,7 +860,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C22D811F-F208-4CB3-8A56-31C8019C1E49}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -877,170 +876,170 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="7" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="20"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="D5" s="13" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="21"/>
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
+      <c r="A6" s="17"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="21"/>
-      <c r="B7" s="21"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
+      <c r="A7" s="17"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="21"/>
-      <c r="B8" s="21"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
+      <c r="A8" s="17"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="D9" s="13" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="21"/>
-      <c r="B10" s="21"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
+      <c r="A10" s="17"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="21"/>
-      <c r="B11" s="21"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
+      <c r="A11" s="17"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="21"/>
-      <c r="B12" s="21"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="21"/>
+      <c r="A12" s="17"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="15" t="s">
+      <c r="A13" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="C13" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="17" t="s">
+      <c r="D13" s="13" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="21"/>
-      <c r="B14" s="21"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
+      <c r="A14" s="17"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="21"/>
-      <c r="B15" s="21"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
+      <c r="A15" s="17"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="21"/>
-      <c r="B16" s="21"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
+      <c r="A16" s="17"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="22" t="s">
+      <c r="A17" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B17" s="23" t="s">
+      <c r="B17" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="23" t="s">
+      <c r="C17" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="D17" s="23" t="s">
+      <c r="D17" s="19" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="21"/>
-      <c r="B18" s="21"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
+      <c r="A18" s="17"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="21"/>
-      <c r="B19" s="21"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
+      <c r="A19" s="17"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="21"/>
-      <c r="B20" s="21"/>
-      <c r="C20" s="21"/>
-      <c r="D20" s="21"/>
+      <c r="A20" s="17"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
